--- a/単体テスト/02_単体テスト.xlsx
+++ b/単体テスト/02_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murakami Eri\Desktop\workspace\workspace-murakami\account\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14597A87-F5BC-4601-B1BC-D3486C8DC6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB03B4D-807B-4AF6-BF5E-68E3E42AC554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{177FA795-7FD5-4C77-B047-A86334658023}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="127">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -208,91 +208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・半角英数字
-・半角ハイフン（-）、
-　アットマーク（＠）のみ
-・最大100文字</t>
-    <rPh sb="1" eb="3">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・半角英数字のみ
-・最大10文字</t>
-    <rPh sb="1" eb="3">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・半角数字のみ
-・最大7文字</t>
-    <rPh sb="1" eb="3">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ひらがな、漢字、数字、
-　カタカナ、ハイフン、
-　スペースのみ
-・最大10文字</t>
-    <rPh sb="6" eb="8">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・初期値空白</t>
-    <rPh sb="1" eb="4">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リストから選択</t>
     <rPh sb="5" eb="7">
       <t>センタク</t>
@@ -360,10 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>home index.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト環境（ブラウザ）</t>
     <rPh sb="3" eb="5">
       <t>カンキョウ</t>
@@ -386,33 +297,6 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ひらがな、漢字、数字、
-　カタカナ、ハイフン、
-　スペースのみ
-・最大100文字</t>
-    <rPh sb="6" eb="8">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mail_confirm.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>return_index.php</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1168,37 +1052,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期値の確認　/　入力項目や選択項目に「入力値」を入れたときの「期待値」を調べる</t>
-    <rPh sb="0" eb="3">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ニュウリョクコウモク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>キタイチ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>シラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期待する動作</t>
     <rPh sb="0" eb="2">
       <t>キタイ</t>
@@ -1236,16 +1089,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>村上　恵梨</t>
-    <rPh sb="0" eb="2">
-      <t>ムラカミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1536,281 +1379,6 @@
     </rPh>
     <rPh sb="33" eb="36">
       <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-・初期値は空白
-・最大10文字
-・ひらがな、漢字のみ入力可
-・空白の場合、
-　赤字でエラーメッセージ
-「名前（性）が未入力です」と
-でる</t>
-    <rPh sb="2" eb="5">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ニュウリョクカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・最大10文字
-・初期値は空白
-・ひらがな、漢字のみ入力可
-・空白の場合、
-　赤字でエラーメッセージ
-「名前（名）が未入力です」と
-でる</t>
-    <rPh sb="1" eb="3">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ニュウリョクカ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・最大10文字
-・初期値は空白
-・カタカナのみ入力可
-・空白の場合、
-　赤字でエラーメッセージ
-「カナ（性）が未入力です」と
-でる</t>
-    <rPh sb="1" eb="3">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウリョクカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・最大10文字
-・初期値は空白
-・カタカナのみ入力可
-・空白の場合、
-　赤字でエラーメッセージ
-「カナ（名）が未入力です」と
-でる</t>
-    <rPh sb="1" eb="3">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウリョクカ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・半角英数字
-・半角ハイフン（-）、
-　アットマーク（＠）のみ
-・最大100文字
-・空白の場合、
-　赤字でエラーメッセージ
-「メールアドレスが未入力です」と
-でる</t>
-    <rPh sb="1" eb="3">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・半角英数字のみ
-・最大10文字
-・空白の場合、
-　赤字でエラーメッセージ
-「パスワードが未入力です」と
-でる</t>
-    <rPh sb="1" eb="3">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・半角数字のみ
-・最大7文字
-・空白の場合、
-　赤字でエラーメッセージ
-「郵便番号が未入力です」と
-でる</t>
-    <rPh sb="1" eb="3">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="37" eb="41">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・初期値空白
-・空白の場合、
-　赤字でエラーメッセージ
-「住所(都道府県)が未選択です」とでる</t>
-    <rPh sb="1" eb="4">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ひらがな、漢字、数字、
-　カタカナ、ハイフン、
-　スペースのみ
-・最大10文字
-・空白の場合、
-　赤字でエラーメッセージ
-「住所(市区町村)が未入力です」　とでる</t>
-    <rPh sb="6" eb="8">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="66" eb="70">
-      <t>シクチョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ひらがな、漢字、数字、
-　カタカナ、ハイフン、
-　スペースのみ
-・最大100文字
-・空白の場合、
-　赤字でエラーメッセージ
-「住所(番地)が未入力です」と
-でる</t>
-    <rPh sb="6" eb="8">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>バンチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2485,6 +2053,564 @@
     <rPh sb="7" eb="8">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上　恵梨</t>
+  </si>
+  <si>
+    <t>return_index.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上　恵梨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値の確認　/　入力項目や選択項目に「入力値」を入れたときの「期待する動作」を調べる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上　恵梨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値の確認　/　入力項目や選択項目に「入力値」を入れたときの「期待する動作」を調べる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角英数字
+・半角ハイフン（-）、
+　アットマーク（＠）のみ
+・最大100文字
+・初期値は空白</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角英数字のみ
+・最大10文字
+・初期値は空白</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ラジオボタン
+・初期値「男」
+・初期値は空白</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角数字のみ
+・最大7文字
+・初期値は空白</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・初期値は空白</t>
+    <rPh sb="1" eb="4">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ひらがな、漢字、数字、
+　カタカナ、ハイフン、
+　スペースのみ
+・最大10文字
+・初期値は空白</t>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ひらがな、漢字、数字、
+　カタカナ、ハイフン、
+　スペースのみ
+・最大100文字
+・初期値は空白</t>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・初期値は前のページの内容
+・最大10文字
+・ひらがな、漢字のみ入力可</t>
+    <rPh sb="2" eb="5">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ニュウリョクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大10文字
+・ひらがな、漢字のみ入力可
+・初期値は前のページの内容</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大10文字
+・カタカナのみ入力可
+・初期値は前のページの内容</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角英数字
+・半角ハイフン（-）、
+　アットマーク（＠）のみ
+・最大100文字
+・初期値は前のページの内容</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角英数字のみ
+・最大10文字
+・初期値は前のページの内容</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角数字のみ
+・最大7文字
+・初期値は前のページの内容</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・初期値は前のページの内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ひらがな、漢字、数字、
+　カタカナ、ハイフン、
+　スペースのみ
+・最大10文字
+・初期値は前のページの内容</t>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ひらがな、漢字、数字、
+　カタカナ、ハイフン、
+　スペースのみ
+・最大100文字
+・初期値は前のページの内容</t>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大10文字
+・ひらがな、漢字のみ入力可
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「名前（性）が未入力です」と
+　でる</t>
+    <rPh sb="14" eb="16">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大10文字
+・ひらがな、漢字のみ入力可
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「名前（名）が未入力です」と
+　でる</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大10文字
+・カタカナのみ入力可
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「カナ（名）が未入力です」と
+　でる</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクカ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大10文字
+・カタカナのみ入力可
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「カナ（性）が未入力です」と
+　でる</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角英数字
+・半角ハイフン（-）、
+　アットマーク（＠）のみ
+・最大100文字
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「メールアドレスが未入力です」
+　とでる</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角英数字のみ
+・最大10文字
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「パスワードが未入力です」と
+　でる</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・半角数字のみ
+・最大7文字
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「郵便番号が未入力です」と
+　でる</t>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・空白で送信した場合、
+　赤字でエラーメッセージ
+「住所(都道府県)が未選択です」
+　とでる</t>
+    <rPh sb="26" eb="28">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ひらがな、漢字、数字、
+　カタカナ、ハイフン、
+　スペースのみ
+・最大10文字
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「住所(市区町村)が未入力です」
+　とでる</t>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ひらがな、漢字、数字、
+　カタカナ、ハイフン、
+　スペースのみ
+・最大100文字
+・空白で送信した場合、
+　赤字でエラーメッセージ
+「住所(番地)が未入力です」と
+　でる</t>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値の確認　/　入力項目や選択項目に「入力値」を入れたときの「期待する動作」を調べる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3360,7 +3486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3388,64 +3514,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3456,12 +3525,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3577,17 +3640,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3721,24 +3775,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3832,6 +3868,120 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3848,6 +3998,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3882,14 +4039,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3897,6 +4047,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFCCFFFF"/>
@@ -5309,7 +5460,7 @@
         <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249A96BE-9ACB-2243-E631-6476AB9DF2D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12592,7 +12743,7 @@
                   <a14:compatExt spid="_x0000_s1721"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453A629D-718C-365F-15DC-8D9DB7460194}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B9060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12659,7 +12810,7 @@
                   <a14:compatExt spid="_x0000_s1722"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4EF399-50AE-AAA6-C400-2E5CFF186964}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BA060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12726,7 +12877,7 @@
                   <a14:compatExt spid="_x0000_s1724"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B21106F-7822-EBA1-11BD-599E3BF7787C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BC060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12793,7 +12944,7 @@
                   <a14:compatExt spid="_x0000_s1726"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9B24C1-3AE3-5382-C07E-CD4C291A7CE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BE060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12860,7 +13011,7 @@
                   <a14:compatExt spid="_x0000_s1727"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48A9681-1BDD-5820-03C5-BD5C37D796DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BF060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12927,7 +13078,7 @@
                   <a14:compatExt spid="_x0000_s1728"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B128CDA8-2250-7015-E23D-F53F21F5B5B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C0060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12999,7 +13150,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E35A72-9A70-46CE-92AB-069B7741A8CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13066,7 +13217,7 @@
                   <a14:compatExt spid="_x0000_s7170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E778D8E-03D3-4F06-93B6-EDADF5F584C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000021C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13133,7 +13284,7 @@
                   <a14:compatExt spid="_x0000_s7171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E199521-875D-46C9-A060-E6DCD93715ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000031C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13200,7 +13351,7 @@
                   <a14:compatExt spid="_x0000_s7172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A6231B-B46C-4F14-BAEE-F7411CA52289}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000041C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13267,7 +13418,7 @@
                   <a14:compatExt spid="_x0000_s7173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE3AFAF-9961-454D-8094-36B6116BB602}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000051C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13334,7 +13485,7 @@
                   <a14:compatExt spid="_x0000_s7174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE27173D-17B8-4DC0-AA3A-736E79A5D35C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000061C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13401,7 +13552,7 @@
                   <a14:compatExt spid="_x0000_s7175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025D24D8-F0D5-463C-8D2A-20B4FD936196}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000071C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13468,7 +13619,7 @@
                   <a14:compatExt spid="_x0000_s7176"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FB0F68-5486-4283-B1D8-DCE212A491C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000081C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13535,7 +13686,7 @@
                   <a14:compatExt spid="_x0000_s7177"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5FCD30-0C9B-4F04-B7AB-112891DA9460}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000091C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13602,7 +13753,7 @@
                   <a14:compatExt spid="_x0000_s7178"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A24A45-623B-4397-867F-E9E4E75570CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13669,7 +13820,7 @@
                   <a14:compatExt spid="_x0000_s7179"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214FE92C-584F-4806-BDB5-342036AC9A1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13736,7 +13887,7 @@
                   <a14:compatExt spid="_x0000_s7180"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C09770-2CB8-4E8E-A287-6CAD77D4CD2A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13803,7 +13954,7 @@
                   <a14:compatExt spid="_x0000_s7181"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E170525C-0234-4EED-9730-ED0776EA32D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13870,7 +14021,7 @@
                   <a14:compatExt spid="_x0000_s7182"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F7F11D-3DFD-4345-BF93-4608089CC290}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13937,7 +14088,7 @@
                   <a14:compatExt spid="_x0000_s7183"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CC1B97-D95A-451B-A221-B0E98F8080B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14004,7 +14155,7 @@
                   <a14:compatExt spid="_x0000_s7184"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B80B6F9-1182-4E8D-A5C9-62E803612C6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000101C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14071,7 +14222,7 @@
                   <a14:compatExt spid="_x0000_s7185"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329B53A7-D943-4D47-AF01-26AB89055074}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000111C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14138,7 +14289,7 @@
                   <a14:compatExt spid="_x0000_s7186"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D07015-C555-44DD-8326-72DC4E349313}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000121C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14205,7 +14356,7 @@
                   <a14:compatExt spid="_x0000_s7187"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF87F75-5FC0-44D8-A1E7-13563AA3FDC1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000131C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14272,7 +14423,7 @@
                   <a14:compatExt spid="_x0000_s7188"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5539C8D7-9E87-4B3B-9E1B-1F78DA09C8DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000141C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14339,7 +14490,7 @@
                   <a14:compatExt spid="_x0000_s7189"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76BC3E5-C672-431C-8E30-0FE89C1F297C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000151C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14406,7 +14557,7 @@
                   <a14:compatExt spid="_x0000_s7190"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5576F23-A012-4AD5-8E60-1B495F0A6487}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000161C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14473,7 +14624,7 @@
                   <a14:compatExt spid="_x0000_s7191"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738CF552-05B5-40A9-9246-D1AC425E24D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000171C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14540,7 +14691,7 @@
                   <a14:compatExt spid="_x0000_s7192"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CFB813-73E0-431F-BF17-6C98FA59EF34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000181C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14607,7 +14758,7 @@
                   <a14:compatExt spid="_x0000_s7193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB2A49-DC3A-4333-9E04-E74D7C5372F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000191C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14674,7 +14825,7 @@
                   <a14:compatExt spid="_x0000_s7194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EBB40E-AC93-4381-A100-EDD2E699C9D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14741,7 +14892,7 @@
                   <a14:compatExt spid="_x0000_s7195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA0A1A8-996C-4FD6-ADB2-14F6E74CF6E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14808,7 +14959,7 @@
                   <a14:compatExt spid="_x0000_s7196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF0FD0F-FD5B-4F63-9E06-ED43E99B564C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14875,7 +15026,7 @@
                   <a14:compatExt spid="_x0000_s7197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0BF7D9-251C-4BA2-B115-5E22ADE3622A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14942,7 +15093,7 @@
                   <a14:compatExt spid="_x0000_s7198"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24EF7255-D381-41B8-A59F-C664FD3EE1F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15009,7 +15160,7 @@
                   <a14:compatExt spid="_x0000_s7199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992DE361-FF60-4E9F-9227-236F2DEB6C22}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15076,7 +15227,7 @@
                   <a14:compatExt spid="_x0000_s7200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B697C48-3FDF-4241-B33D-AC087532C7A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000201C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15143,7 +15294,7 @@
                   <a14:compatExt spid="_x0000_s7201"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E60F230-DF23-4C4D-BB0D-6750EDC3AF05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000211C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15210,7 +15361,7 @@
                   <a14:compatExt spid="_x0000_s7202"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFF4926-A51F-451C-92A2-019DE07DA73C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000221C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15277,7 +15428,7 @@
                   <a14:compatExt spid="_x0000_s7203"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC43B10-F391-45FD-B316-0C7004AB7105}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000231C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15344,7 +15495,7 @@
                   <a14:compatExt spid="_x0000_s7204"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBA8DF4-7777-4B5C-86DC-5183815372ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000241C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15411,7 +15562,7 @@
                   <a14:compatExt spid="_x0000_s7205"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB796B1-50B7-4F56-9355-0C5D25F14A15}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000251C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15478,7 +15629,7 @@
                   <a14:compatExt spid="_x0000_s7206"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DD9757-3132-4B2B-B8AA-76A3A8FB332A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000261C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15545,7 +15696,7 @@
                   <a14:compatExt spid="_x0000_s7207"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E46E561-B963-470E-939B-FAC15AD9BD6F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000271C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15612,7 +15763,7 @@
                   <a14:compatExt spid="_x0000_s7208"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849C0C63-4A03-41C5-A998-199A7FE0A51C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000281C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15679,7 +15830,7 @@
                   <a14:compatExt spid="_x0000_s7209"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA390403-AF52-4E78-A0FC-D46F0B3FFE18}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000291C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15746,7 +15897,7 @@
                   <a14:compatExt spid="_x0000_s7210"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32735C63-55B6-4613-9907-5A12D01DC480}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15813,7 +15964,7 @@
                   <a14:compatExt spid="_x0000_s7211"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7D7FBC-1108-4A45-9EA4-EBD1CB80D2C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15880,7 +16031,7 @@
                   <a14:compatExt spid="_x0000_s7212"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15EE8CE-F4DD-4037-AE54-44BA3D094013}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15947,7 +16098,7 @@
                   <a14:compatExt spid="_x0000_s7213"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1CEB6C-6E87-45C4-80CD-49384BB7B02F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16014,7 +16165,7 @@
                   <a14:compatExt spid="_x0000_s7214"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CAD365-7A87-41E0-AE67-5D4A4D8160E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16081,7 +16232,7 @@
                   <a14:compatExt spid="_x0000_s7215"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1538C3-D87D-4ECE-AD52-70F400D7EFE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16148,7 +16299,7 @@
                   <a14:compatExt spid="_x0000_s7216"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3344D30-FE9B-45E0-BC47-A5D909D32046}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000301C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16215,7 +16366,7 @@
                   <a14:compatExt spid="_x0000_s7217"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D601D00-35ED-45AD-91FE-3FA66ACF7DE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000311C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16282,7 +16433,7 @@
                   <a14:compatExt spid="_x0000_s7218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1DBD92-7A68-4FFF-8FEF-652971B72D57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000321C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16349,7 +16500,7 @@
                   <a14:compatExt spid="_x0000_s7219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032434C0-5FA7-4179-963B-D56E4FB09BCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000331C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16416,7 +16567,7 @@
                   <a14:compatExt spid="_x0000_s7220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3367C836-0B48-4E0A-AFA3-3FC923A5D023}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000341C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16483,7 +16634,7 @@
                   <a14:compatExt spid="_x0000_s7221"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3472ACE-21FA-4EFE-A8D9-8F71BAC165EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000351C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16550,7 +16701,7 @@
                   <a14:compatExt spid="_x0000_s7222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35C06EB-30A6-4791-B8B5-9D7B6FC9E569}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000361C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16617,7 +16768,7 @@
                   <a14:compatExt spid="_x0000_s7223"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC49709-6148-4B90-8EA1-C8110AFAAC54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000371C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16684,7 +16835,7 @@
                   <a14:compatExt spid="_x0000_s7224"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B9AED6-165F-4DCD-A5A0-266F3E913F55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000381C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16751,7 +16902,7 @@
                   <a14:compatExt spid="_x0000_s7225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A897F6-2A5B-427B-AA57-39BA11B960F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000391C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16818,7 +16969,7 @@
                   <a14:compatExt spid="_x0000_s7226"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A70C4A8-E2D9-4A06-B5A6-034325141ED8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16885,7 +17036,7 @@
                   <a14:compatExt spid="_x0000_s7227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A2EE3F-2DAE-4A4C-871E-72E64DF71D66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16952,7 +17103,7 @@
                   <a14:compatExt spid="_x0000_s7228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B291005F-3ED3-479F-A9F1-4782DCAF62A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17019,7 +17170,7 @@
                   <a14:compatExt spid="_x0000_s7229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209ECEE1-DC61-4697-83C9-A6A2B38AFCED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17086,7 +17237,7 @@
                   <a14:compatExt spid="_x0000_s7230"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6155252-C793-4B28-AC15-5B03DD839CA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17153,7 +17304,7 @@
                   <a14:compatExt spid="_x0000_s7231"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3BAE60-885A-49C2-B56E-27B978B61613}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17220,7 +17371,7 @@
                   <a14:compatExt spid="_x0000_s7232"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C047528-789D-4EE9-B284-18287203CA47}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000401C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17287,7 +17438,7 @@
                   <a14:compatExt spid="_x0000_s7233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAAC478-79F5-41B8-A135-39259BEEF657}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000411C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17354,7 +17505,7 @@
                   <a14:compatExt spid="_x0000_s7234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB7341D-2E8F-4E23-9AAD-820487EFC9B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000421C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17421,7 +17572,7 @@
                   <a14:compatExt spid="_x0000_s7235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81315A90-F759-47F2-A536-2B99DC5848E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000431C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17488,7 +17639,7 @@
                   <a14:compatExt spid="_x0000_s7236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E6FC5B-38EA-41EF-AC53-CEADCB840232}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000441C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17555,7 +17706,7 @@
                   <a14:compatExt spid="_x0000_s7237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B98B6DE-0566-4E12-B5A1-C2B884D5008F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000451C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17622,7 +17773,7 @@
                   <a14:compatExt spid="_x0000_s7238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20B386B-91F3-4085-8A8A-61500DA279DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000461C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17689,7 +17840,7 @@
                   <a14:compatExt spid="_x0000_s7239"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E548890C-FC88-4E9E-BAB9-35AD3F647912}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000471C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17756,7 +17907,7 @@
                   <a14:compatExt spid="_x0000_s7240"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FD207E-B7E8-439C-9434-940779075AD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000481C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17823,7 +17974,7 @@
                   <a14:compatExt spid="_x0000_s7241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDAE54A-11AE-4711-A304-8E71D1088B4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000491C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17890,7 +18041,7 @@
                   <a14:compatExt spid="_x0000_s7242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D25AB6C-96BB-4926-B246-7D06F2F34930}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17957,7 +18108,7 @@
                   <a14:compatExt spid="_x0000_s7243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB1CA6-1601-4D55-8E94-753868522888}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18024,7 +18175,7 @@
                   <a14:compatExt spid="_x0000_s7244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71947942-1FDB-41DD-94F4-CE076AE0568D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18091,7 +18242,7 @@
                   <a14:compatExt spid="_x0000_s7245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C77528-BA38-4D2D-ADB2-D2721E1DC8AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18158,7 +18309,7 @@
                   <a14:compatExt spid="_x0000_s7246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876CC059-B813-4F7C-B043-921FD0A513E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18225,7 +18376,7 @@
                   <a14:compatExt spid="_x0000_s7247"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2AD946-C92D-4A9A-A618-7F34ABDC4F79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18292,7 +18443,7 @@
                   <a14:compatExt spid="_x0000_s7248"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC8881-0DDD-4B37-A223-B89850CE45F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000501C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18359,7 +18510,7 @@
                   <a14:compatExt spid="_x0000_s7249"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A7F768-F555-4D61-8158-F66F4412EE5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000511C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18426,7 +18577,7 @@
                   <a14:compatExt spid="_x0000_s7250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110C1830-95E7-4E25-BD26-0EB39E7CD72D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000521C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18493,7 +18644,7 @@
                   <a14:compatExt spid="_x0000_s7251"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA1CF9B-8A89-4FEC-AD37-A61DC61E4673}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000531C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18560,7 +18711,7 @@
                   <a14:compatExt spid="_x0000_s7252"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530A0618-E2FF-439D-884A-813ED7C50F3C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000541C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18627,7 +18778,7 @@
                   <a14:compatExt spid="_x0000_s7253"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D790DC-5A0C-415D-9537-11D7E9AB6704}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000551C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18694,7 +18845,7 @@
                   <a14:compatExt spid="_x0000_s7254"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F7A239-BB59-43D0-8407-4245D0C0EBC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000561C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18761,7 +18912,7 @@
                   <a14:compatExt spid="_x0000_s7255"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D820C7-EBB0-4B89-824A-08E84C9FCB58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000571C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18828,7 +18979,7 @@
                   <a14:compatExt spid="_x0000_s7256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9D9050-75B3-44F1-9964-15CD71C0ACA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000581C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18895,7 +19046,7 @@
                   <a14:compatExt spid="_x0000_s7257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC4B766-2116-4BDE-A2D7-5C464086DE7A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000591C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18962,7 +19113,7 @@
                   <a14:compatExt spid="_x0000_s7258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59E42DE-7119-416F-857A-AC766E0D7018}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19029,7 +19180,7 @@
                   <a14:compatExt spid="_x0000_s7259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4DC4FD-97AA-4613-AB64-C150087193A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19096,7 +19247,7 @@
                   <a14:compatExt spid="_x0000_s7260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C9DC30-6E17-4684-A529-ACB0130C45D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19163,7 +19314,7 @@
                   <a14:compatExt spid="_x0000_s7261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED75644-7E71-4723-BBEF-29BD3D422249}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19230,7 +19381,7 @@
                   <a14:compatExt spid="_x0000_s7262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF5FADB-80AA-4D71-809D-5C9B01E56E0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19297,7 +19448,7 @@
                   <a14:compatExt spid="_x0000_s7263"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47879CF-EF40-4C86-8D4D-C7174DB4D28B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19364,7 +19515,7 @@
                   <a14:compatExt spid="_x0000_s7264"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061D4157-6922-4E53-B418-7CFD651161EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000601C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19431,7 +19582,7 @@
                   <a14:compatExt spid="_x0000_s7265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B38C8A-3175-4AED-9424-0E9EC94FC56B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000611C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19498,7 +19649,7 @@
                   <a14:compatExt spid="_x0000_s7266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF82BB9-007D-4B4A-88D4-7681FA9AB79C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000621C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19565,7 +19716,7 @@
                   <a14:compatExt spid="_x0000_s7267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D1420F-A7E3-4323-AEAA-C2BDFA6FE8B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000631C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19632,7 +19783,7 @@
                   <a14:compatExt spid="_x0000_s7268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481B857A-DB05-47D2-9A36-492DA81ABEA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000641C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19699,7 +19850,7 @@
                   <a14:compatExt spid="_x0000_s7269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDF2F12-202B-4CC2-930A-A9773C7906DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000651C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19766,7 +19917,7 @@
                   <a14:compatExt spid="_x0000_s7270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B9AC85-C7F6-4292-9CC9-E88A5C11F616}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000661C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19833,7 +19984,7 @@
                   <a14:compatExt spid="_x0000_s7271"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FF36A6-C39A-41EB-9C51-B1BD673AE32C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000671C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19900,7 +20051,7 @@
                   <a14:compatExt spid="_x0000_s7272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4732A466-4A87-4601-A70C-569D7F885C62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000681C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19967,7 +20118,7 @@
                   <a14:compatExt spid="_x0000_s7273"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02D4FCA-4F4F-4C1D-A376-5BB27C53CADA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000691C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20034,7 +20185,7 @@
                   <a14:compatExt spid="_x0000_s7274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21E481F-6FFE-494A-B7AD-7EEBD0D8B138}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20101,7 +20252,7 @@
                   <a14:compatExt spid="_x0000_s7275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1ED80C5-83C4-4620-B198-7E8C850546F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20168,7 +20319,7 @@
                   <a14:compatExt spid="_x0000_s7276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822CC7A9-228D-499E-AE69-ECD46DDE7266}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20235,7 +20386,7 @@
                   <a14:compatExt spid="_x0000_s7277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1291B85B-BBFE-471E-9442-F283C972B567}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20302,7 +20453,7 @@
                   <a14:compatExt spid="_x0000_s7278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF512E3-6C26-4CCC-A1AD-67CE656F8B53}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20369,7 +20520,7 @@
                   <a14:compatExt spid="_x0000_s7279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0160036-A051-4F2B-930B-5D505ABD6519}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20436,7 +20587,7 @@
                   <a14:compatExt spid="_x0000_s7280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2661D1-FB41-4A66-BE31-1443CD2F6B96}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000701C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20503,7 +20654,7 @@
                   <a14:compatExt spid="_x0000_s7281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BCE11F-599B-4A9F-955C-4ED1B4C3FF32}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000711C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20570,7 +20721,7 @@
                   <a14:compatExt spid="_x0000_s7282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2182D4A-036E-4C3D-890E-124CAA95F23C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000721C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20637,7 +20788,7 @@
                   <a14:compatExt spid="_x0000_s7283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D1814-E8A4-41CC-98DC-C048D78F610A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000731C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20704,7 +20855,7 @@
                   <a14:compatExt spid="_x0000_s7284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8E23D8-B1C8-44D9-94FC-2F12113E248A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000741C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20771,7 +20922,7 @@
                   <a14:compatExt spid="_x0000_s7285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E2914B-F883-4B22-B0D5-9A36649AD472}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000751C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20838,7 +20989,7 @@
                   <a14:compatExt spid="_x0000_s7286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4998C856-1432-4BC0-B879-42C1DCCB02ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000761C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20905,7 +21056,7 @@
                   <a14:compatExt spid="_x0000_s7287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4413FF7B-C6D3-4D9E-91D4-EF8E9BF425C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000771C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20972,7 +21123,7 @@
                   <a14:compatExt spid="_x0000_s7288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C15FEEA-7812-45B9-AA36-D56B2C05692F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000781C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21039,7 +21190,7 @@
                   <a14:compatExt spid="_x0000_s7289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A8F45D-3CE1-4E23-8206-71F2C1188E77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000791C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21106,7 +21257,7 @@
                   <a14:compatExt spid="_x0000_s7290"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8C1ED5-AAE7-4614-ACDB-021D6970DEDE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21173,7 +21324,7 @@
                   <a14:compatExt spid="_x0000_s7291"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DD1948-AE9E-4A19-B055-67479344F697}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21240,7 +21391,7 @@
                   <a14:compatExt spid="_x0000_s7292"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D32620-2AE2-47D7-AE2F-6A94D8F130DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21307,7 +21458,7 @@
                   <a14:compatExt spid="_x0000_s7293"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F150554-C173-43F0-811E-B98D21B9753A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21374,7 +21525,7 @@
                   <a14:compatExt spid="_x0000_s7294"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF42C76-EF93-43EF-AD79-DF2AD11A4AF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21441,7 +21592,7 @@
                   <a14:compatExt spid="_x0000_s7295"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ACF31B-9302-4302-AB82-9804CA634073}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21508,7 +21659,7 @@
                   <a14:compatExt spid="_x0000_s7296"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65DD8F5-AEAC-41F8-9893-3076B407FA75}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000801C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21575,7 +21726,7 @@
                   <a14:compatExt spid="_x0000_s7297"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B274CF-E73F-4899-A724-7734039102F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000811C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21642,7 +21793,7 @@
                   <a14:compatExt spid="_x0000_s7298"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F6AD09-B08F-4A4D-9713-64E1B9931B10}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000821C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21709,7 +21860,7 @@
                   <a14:compatExt spid="_x0000_s7299"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7C1DB0-A1FA-476D-90C4-4FFB00D1A68B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000831C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21776,7 +21927,7 @@
                   <a14:compatExt spid="_x0000_s7300"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF178D0D-F9D5-4FFB-B54B-44FDD8C404B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000841C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21843,7 +21994,7 @@
                   <a14:compatExt spid="_x0000_s7301"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5913689-FBC9-4A1E-A7C4-DB9521B48E17}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000851C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21910,7 +22061,7 @@
                   <a14:compatExt spid="_x0000_s7302"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C7137C-CF73-4C71-99F0-8F214433AD95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000861C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21977,7 +22128,7 @@
                   <a14:compatExt spid="_x0000_s7303"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448C491A-DCB8-4F2D-A8B9-E14F0BBC2FCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000871C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22044,7 +22195,7 @@
                   <a14:compatExt spid="_x0000_s7304"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65C85A6-AD47-4EDB-A31B-B27F1423EB59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000881C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22111,7 +22262,7 @@
                   <a14:compatExt spid="_x0000_s7305"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002AFD2D-DECF-4A9C-9480-7FB025EDD328}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000891C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22178,7 +22329,7 @@
                   <a14:compatExt spid="_x0000_s7306"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858B820E-21B1-4EAD-B1D4-15202F137315}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22245,7 +22396,7 @@
                   <a14:compatExt spid="_x0000_s7307"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16478CA-7CAF-43AD-BA3B-6084EA59B8FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22312,7 +22463,7 @@
                   <a14:compatExt spid="_x0000_s7308"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53388AC-9F4A-48EA-B10B-9F29F3163FBF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22379,7 +22530,7 @@
                   <a14:compatExt spid="_x0000_s7309"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F71982-D700-402D-A8F5-B71552500917}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22446,7 +22597,7 @@
                   <a14:compatExt spid="_x0000_s7310"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6AF58B-3B45-4DA4-A0E3-590EA350FC3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22513,7 +22664,7 @@
                   <a14:compatExt spid="_x0000_s7311"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD37D142-629B-47F5-AD2E-DA23D30A34FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22580,7 +22731,7 @@
                   <a14:compatExt spid="_x0000_s7312"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C210D766-0AD6-421C-9278-D205A93302F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000901C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22647,7 +22798,7 @@
                   <a14:compatExt spid="_x0000_s7313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5C2DBE-E65F-4279-892D-8576FF5FB596}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000911C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22714,7 +22865,7 @@
                   <a14:compatExt spid="_x0000_s7314"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D48A33-87D8-40F5-A1CB-B687F87C59B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000921C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22781,7 +22932,7 @@
                   <a14:compatExt spid="_x0000_s7315"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F120F47C-BD76-4691-8C9B-3B1AB636181A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000931C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22848,7 +22999,7 @@
                   <a14:compatExt spid="_x0000_s7316"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB5A3A5-D76A-4BAE-9719-846C414CF347}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000941C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22915,7 +23066,7 @@
                   <a14:compatExt spid="_x0000_s7317"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5258C236-B97C-4C8B-B199-82FC07C1E703}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000951C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22982,7 +23133,7 @@
                   <a14:compatExt spid="_x0000_s7318"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542EC85B-0B45-459D-8888-FF122D4BE558}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000961C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23049,7 +23200,7 @@
                   <a14:compatExt spid="_x0000_s7319"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5D0BC7-8239-4F9F-8864-D35E8C3BF341}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000971C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23116,7 +23267,7 @@
                   <a14:compatExt spid="_x0000_s7320"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A9E8D0-649F-40FB-9106-DFAA678BA89A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000981C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23183,7 +23334,7 @@
                   <a14:compatExt spid="_x0000_s7321"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDDB1D0-015E-416C-812C-6EBC7CD37971}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000991C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23250,7 +23401,7 @@
                   <a14:compatExt spid="_x0000_s7322"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1AF29C-BC9C-4546-907E-F5FD4997A18C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23317,7 +23468,7 @@
                   <a14:compatExt spid="_x0000_s7323"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA06DC6-2C45-475E-A82C-C161EA537AB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23384,7 +23535,7 @@
                   <a14:compatExt spid="_x0000_s7324"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D553582-11FD-46AF-8F4E-AD70BA296D9E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23451,7 +23602,7 @@
                   <a14:compatExt spid="_x0000_s7325"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B14C83B-8C5C-4821-AA01-F32806CC7C20}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23518,7 +23669,7 @@
                   <a14:compatExt spid="_x0000_s7326"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE053074-E869-447E-8332-0CD7D81A6062}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23585,7 +23736,7 @@
                   <a14:compatExt spid="_x0000_s7327"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD84F18-AD78-4CF1-BB93-A6B1EF0BD8A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23652,7 +23803,7 @@
                   <a14:compatExt spid="_x0000_s7328"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4365A05B-402E-4014-9D2C-1712A83B2786}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A01C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23719,7 +23870,7 @@
                   <a14:compatExt spid="_x0000_s7329"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3BB328-1E8D-4CA2-8E4D-D8F75A7B9A67}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A11C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23786,7 +23937,7 @@
                   <a14:compatExt spid="_x0000_s7330"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90ECEEB1-CA82-42CC-9A84-018B830E6F90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A21C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23853,7 +24004,7 @@
                   <a14:compatExt spid="_x0000_s7331"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00872D20-5D0B-4A16-B8FE-E1F7B5CAD1E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A31C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23920,7 +24071,7 @@
                   <a14:compatExt spid="_x0000_s7332"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977F5288-A661-4BC0-8CC0-CCD3CF228145}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A41C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23987,7 +24138,7 @@
                   <a14:compatExt spid="_x0000_s7333"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379B40C1-E9DA-421C-8E9D-AD362119DA3F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A51C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24054,7 +24205,7 @@
                   <a14:compatExt spid="_x0000_s7334"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635000AA-CD28-46AA-9F84-303AA1987B4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A61C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24121,7 +24272,7 @@
                   <a14:compatExt spid="_x0000_s7335"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A5EC70-525C-4F4C-9555-7EA0EF8EC1C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A71C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24188,7 +24339,7 @@
                   <a14:compatExt spid="_x0000_s7336"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83456F9F-40A1-425F-B1C4-8209BCC779B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A81C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24255,7 +24406,7 @@
                   <a14:compatExt spid="_x0000_s7337"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D7E51E-78E2-4D02-86E6-207415A7CBA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A91C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24322,7 +24473,7 @@
                   <a14:compatExt spid="_x0000_s7338"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A99520E-7564-40AF-99F9-CABED45E12B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24394,7 +24545,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3A3E4B-7076-475D-A861-0AFED126BBFD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24461,7 +24612,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9ECA9B-BAFA-445E-AB8C-F513005D9129}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24528,7 +24679,7 @@
                   <a14:compatExt spid="_x0000_s8195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF816374-05C2-4A83-90F0-F1D8F5FFA9D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24595,7 +24746,7 @@
                   <a14:compatExt spid="_x0000_s8197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AA7FDF-339F-49BD-AACA-848546F3D6DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24662,7 +24813,7 @@
                   <a14:compatExt spid="_x0000_s8199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA73799C-62A1-4596-BB6E-81BBBAC4F9F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24729,7 +24880,7 @@
                   <a14:compatExt spid="_x0000_s8200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F9A22F-F166-4B7D-9AA5-A8C70558F482}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24796,7 +24947,7 @@
                   <a14:compatExt spid="_x0000_s8201"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23345089-B949-4659-9C5F-837FC77CAD82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24863,7 +25014,7 @@
                   <a14:compatExt spid="_x0000_s8202"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FF1131-42F8-48EC-8ACF-0D5D4DC9D535}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24930,7 +25081,7 @@
                   <a14:compatExt spid="_x0000_s8203"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A90C1F-C67E-4F0B-9E66-468092BEB5E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24997,7 +25148,7 @@
                   <a14:compatExt spid="_x0000_s8204"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EFC5C2-3B17-4251-A40A-D9CB13E8AC66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25064,7 +25215,7 @@
                   <a14:compatExt spid="_x0000_s8205"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27063FB-A6F7-446B-9806-ABAD3EC62AC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25131,7 +25282,7 @@
                   <a14:compatExt spid="_x0000_s8206"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40E77D9-A397-4CE3-83F2-BB298D16C1EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25198,7 +25349,7 @@
                   <a14:compatExt spid="_x0000_s8207"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA2ABFE-C7B4-4951-A6D9-D2D03DE09D3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25265,7 +25416,7 @@
                   <a14:compatExt spid="_x0000_s8208"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3ECD49-2058-4AB4-AA6C-75EB1B21D43F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25332,7 +25483,7 @@
                   <a14:compatExt spid="_x0000_s8209"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B6F39D-1C0B-48A6-95D3-09C046781CD6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25399,7 +25550,7 @@
                   <a14:compatExt spid="_x0000_s8210"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7948BCF1-E0A2-4D5E-ABD8-ACAC5A1DF07C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25466,7 +25617,7 @@
                   <a14:compatExt spid="_x0000_s8211"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3D47AB-1FD2-4762-962B-BB89A4095531}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25533,7 +25684,7 @@
                   <a14:compatExt spid="_x0000_s8212"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935EF66F-3B7F-416E-AF04-F30B29E37F42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25600,7 +25751,7 @@
                   <a14:compatExt spid="_x0000_s8213"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870C93B9-B69D-4C94-A9F1-F443DEBA33B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25667,7 +25818,7 @@
                   <a14:compatExt spid="_x0000_s8214"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F76EA7-44D5-4077-9642-B1F397446A12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25734,7 +25885,7 @@
                   <a14:compatExt spid="_x0000_s8215"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751B1143-0CAF-46C1-8A12-928E1D1354A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25801,7 +25952,7 @@
                   <a14:compatExt spid="_x0000_s8216"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662ECBCD-4388-45F1-8104-811C9FB0DECE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25868,7 +26019,7 @@
                   <a14:compatExt spid="_x0000_s8217"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBB243C-7CB6-418E-9A2D-B8185D79F0EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25935,7 +26086,7 @@
                   <a14:compatExt spid="_x0000_s8218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F00C0DB-EBBB-41F7-B212-FB3BE4292957}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26002,7 +26153,7 @@
                   <a14:compatExt spid="_x0000_s8219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BABD2C2-314D-4CAA-9C2A-122DD3356370}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26069,7 +26220,7 @@
                   <a14:compatExt spid="_x0000_s8220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093B5576-AB82-45C3-AF5F-83FBD4875A89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26136,7 +26287,7 @@
                   <a14:compatExt spid="_x0000_s8221"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41706E37-8433-41C2-BCC5-55CD74E83245}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26203,7 +26354,7 @@
                   <a14:compatExt spid="_x0000_s8222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD40E899-C584-46C4-A727-7D3648CE6655}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26270,7 +26421,7 @@
                   <a14:compatExt spid="_x0000_s8223"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC1C2F5-8790-47A4-839B-6A009CEAF511}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26337,7 +26488,7 @@
                   <a14:compatExt spid="_x0000_s8224"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E6DEA3-842C-407B-86FE-4BE3AD832203}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26404,7 +26555,7 @@
                   <a14:compatExt spid="_x0000_s8225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129EEB39-4B71-491E-A4C1-882FCD214FF4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26471,7 +26622,7 @@
                   <a14:compatExt spid="_x0000_s8226"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D491012-1E6D-4C76-9CCA-839B6C3CDCF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26538,7 +26689,7 @@
                   <a14:compatExt spid="_x0000_s8227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F91DFE-A63E-4EFD-AAB8-BE6BCAF48851}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26605,7 +26756,7 @@
                   <a14:compatExt spid="_x0000_s8228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD57DCC-327B-4B7C-8C1B-18497557D821}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26672,7 +26823,7 @@
                   <a14:compatExt spid="_x0000_s8229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3123ACD0-D9B5-4984-AD3D-949ED10B77C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26739,7 +26890,7 @@
                   <a14:compatExt spid="_x0000_s8230"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{476049EE-CD79-44F7-B96A-62013CFBF8B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26806,7 +26957,7 @@
                   <a14:compatExt spid="_x0000_s8231"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9811EAD-2E8E-402F-B48F-9DC45DC8E9A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26873,7 +27024,7 @@
                   <a14:compatExt spid="_x0000_s8232"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E718A6C-DB62-4B55-942B-AEA711EB2817}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26940,7 +27091,7 @@
                   <a14:compatExt spid="_x0000_s8233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3E3011-C06D-4089-B084-4385F3C4E354}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27007,7 +27158,7 @@
                   <a14:compatExt spid="_x0000_s8234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEB158E-668E-45D2-9952-ACBF24E0B3F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27074,7 +27225,7 @@
                   <a14:compatExt spid="_x0000_s8235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B140C9-7143-43BC-B848-FF708A34C62A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27141,7 +27292,7 @@
                   <a14:compatExt spid="_x0000_s8236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A902BD4-542B-4594-A306-11B25BC94B84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27208,7 +27359,7 @@
                   <a14:compatExt spid="_x0000_s8237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E93B1E-5DE0-48F0-A9E7-5BB897A19F59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27275,7 +27426,7 @@
                   <a14:compatExt spid="_x0000_s8239"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78764EAD-0C93-4575-9521-E3AA9CFCA93C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27342,7 +27493,7 @@
                   <a14:compatExt spid="_x0000_s8240"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BCBED9-43E0-4D64-A939-08FC97F01E7A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27409,7 +27560,7 @@
                   <a14:compatExt spid="_x0000_s8241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8656C5F-BD58-4DBD-A9C5-0AB1FCA308CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27476,7 +27627,7 @@
                   <a14:compatExt spid="_x0000_s8242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132E8F4B-7B6B-4187-AD9F-69975C50DBE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27543,7 +27694,7 @@
                   <a14:compatExt spid="_x0000_s8243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D4528C-D11C-4C26-9C94-3C97495D7DA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27610,7 +27761,7 @@
                   <a14:compatExt spid="_x0000_s8244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031BC331-9F33-49DC-A474-C2F9DB465C1C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27677,7 +27828,7 @@
                   <a14:compatExt spid="_x0000_s8245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDF4DFE-BBCF-473D-BADC-DB2B6131DB88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27744,7 +27895,7 @@
                   <a14:compatExt spid="_x0000_s8246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379C0ED3-E584-4F15-8D17-2CA13BA26ED9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27811,7 +27962,7 @@
                   <a14:compatExt spid="_x0000_s8247"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71552B7A-6EBD-4FC7-8E42-B5C1083FB8F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27878,7 +28029,7 @@
                   <a14:compatExt spid="_x0000_s8248"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DCB166-F470-493D-AE27-0057ADCF2FD3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27945,7 +28096,7 @@
                   <a14:compatExt spid="_x0000_s8249"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B924F443-E5BA-47F2-AE60-CF2882DEAF1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28012,7 +28163,7 @@
                   <a14:compatExt spid="_x0000_s8250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E909F27E-450C-43DB-9800-5C584A1E21F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28079,7 +28230,7 @@
                   <a14:compatExt spid="_x0000_s8251"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA97D028-E1A3-435A-A780-EB99F358E663}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28146,7 +28297,7 @@
                   <a14:compatExt spid="_x0000_s8252"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E65CABF-F3CD-4DDB-B02A-2CE3893B3EBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28213,7 +28364,7 @@
                   <a14:compatExt spid="_x0000_s8253"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D4EA76-1EC9-4AF7-A6B5-FA6A6955B83B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28280,7 +28431,7 @@
                   <a14:compatExt spid="_x0000_s8254"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C19DD75-2477-4C9E-BB1D-EDCC9074F52C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28347,7 +28498,7 @@
                   <a14:compatExt spid="_x0000_s8255"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1CD7D2-8EED-4B2F-8080-A31233CCD692}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28414,7 +28565,7 @@
                   <a14:compatExt spid="_x0000_s8256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C54EC2F-D538-4981-8857-38A6F4029793}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28481,7 +28632,7 @@
                   <a14:compatExt spid="_x0000_s8257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA765808-06A8-48B1-9CFC-50FB387C09B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28548,7 +28699,7 @@
                   <a14:compatExt spid="_x0000_s8258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E9C759-D24A-47B9-9F63-A27D70338256}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28615,7 +28766,7 @@
                   <a14:compatExt spid="_x0000_s8259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F82A68C-3523-4FCB-BA48-8CE98850A107}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28682,7 +28833,7 @@
                   <a14:compatExt spid="_x0000_s8260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140B7968-D218-4F56-8384-07D38C263888}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28749,7 +28900,7 @@
                   <a14:compatExt spid="_x0000_s8261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985C7048-EFB9-410B-8983-DE8C4483F4B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28816,7 +28967,7 @@
                   <a14:compatExt spid="_x0000_s8262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E0EBB6-D5D6-43BD-ADBE-5D02AF40C6B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28883,7 +29034,7 @@
                   <a14:compatExt spid="_x0000_s8263"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62856AF3-367A-4C99-AEA6-B35FA8170B96}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28950,7 +29101,7 @@
                   <a14:compatExt spid="_x0000_s8264"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4EE6B7-BE75-4C81-B4AA-441899D29961}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29017,7 +29168,7 @@
                   <a14:compatExt spid="_x0000_s8265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674D3A80-9CAF-4118-846A-224A2E547D02}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29084,7 +29235,7 @@
                   <a14:compatExt spid="_x0000_s8266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B828307F-E8EA-4BD9-B4F2-81BE3F18E2BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29151,7 +29302,7 @@
                   <a14:compatExt spid="_x0000_s8267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC11DBD-3416-4761-8DBF-18E366EB0C82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29218,7 +29369,7 @@
                   <a14:compatExt spid="_x0000_s8269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4AAE68-D083-4955-8527-AE3FCD98BB71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29285,7 +29436,7 @@
                   <a14:compatExt spid="_x0000_s8270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42F2FAC-31FB-4CFE-B62C-5CA528900DB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29352,7 +29503,7 @@
                   <a14:compatExt spid="_x0000_s8272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DC37EF-30C5-4D49-ADD0-7E616370C42D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29419,7 +29570,7 @@
                   <a14:compatExt spid="_x0000_s8274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7023339F-3C8F-41C7-8A57-8083B98A7D3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29486,7 +29637,7 @@
                   <a14:compatExt spid="_x0000_s8276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65418894-9649-405E-A5DC-A768A2554BB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29553,7 +29704,7 @@
                   <a14:compatExt spid="_x0000_s8277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6049351B-7E57-40CF-B708-AA65801A9504}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29620,7 +29771,7 @@
                   <a14:compatExt spid="_x0000_s8279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F91F316-9EDF-4EBF-1413-860E0CAE04BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29687,7 +29838,7 @@
                   <a14:compatExt spid="_x0000_s8280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B633C3A1-D17B-5BF2-F84C-3F7A9258ECD9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29754,7 +29905,7 @@
                   <a14:compatExt spid="_x0000_s8281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A2C51C-E3F5-0F8E-6201-AF9CCF1CB8B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29821,7 +29972,7 @@
                   <a14:compatExt spid="_x0000_s8282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36965A20-7A0D-5A74-4885-5BA56DE40018}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29888,7 +30039,7 @@
                   <a14:compatExt spid="_x0000_s8283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500836AA-813A-4B78-96A6-98E82A06AB1C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29955,7 +30106,7 @@
                   <a14:compatExt spid="_x0000_s8284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD2B534-C93B-3C0A-9226-742C9049D86B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30022,7 +30173,7 @@
                   <a14:compatExt spid="_x0000_s8285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68101A55-37AD-1565-FC82-3D8916E4F76A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30089,7 +30240,7 @@
                   <a14:compatExt spid="_x0000_s8286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D058361D-0E07-5EEE-4122-D7B8D62C13F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30156,7 +30307,7 @@
                   <a14:compatExt spid="_x0000_s8287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE777CD1-6C8B-1335-027A-AFDB1E645494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30223,7 +30374,7 @@
                   <a14:compatExt spid="_x0000_s8288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0138E727-8E95-D5F5-2A6F-716267AFF9A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30290,7 +30441,7 @@
                   <a14:compatExt spid="_x0000_s8289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670B3A62-BC25-0441-35A0-213EFC9FEEEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30639,8 +30790,8 @@
   </sheetPr>
   <dimension ref="A44:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -30658,7 +30809,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -30666,7 +30817,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -30684,8 +30835,8 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H61"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
@@ -30704,91 +30855,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="str">
-        <f ca="1">RIGHT(CELL("filename",アカウント登録!B1),LEN(CELL("filename",アカウント登録!B1))-FIND("]",CELL("filename",アカウント登録!B1)))</f>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144" t="str">
+        <f ca="1">RIGHT(CELL("filename",アカウント登録!C1),LEN(CELL("filename",アカウント登録!C1))-FIND("]",CELL("filename",アカウント登録!C1)))</f>
         <v>アカウント登録</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="1"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="149"/>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="143"/>
+      <c r="C3" s="127">
         <v>45434</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="1"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="143"/>
+      <c r="C4" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="130"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
       <c r="I4" s="1"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="143"/>
+      <c r="C5" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
     </row>
@@ -30801,932 +30952,920 @@
     </row>
     <row r="7" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="146" t="s">
+      <c r="E7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="113" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="154" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="143" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="132" t="s">
+      <c r="B8" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="92"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="133" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="93"/>
+      <c r="E9" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="128" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="133" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="93"/>
+      <c r="E10" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="128" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="133" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="93"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="134" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="94"/>
+      <c r="E12" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="135" t="s">
+      <c r="C13" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="141"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="144"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="133" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="93"/>
+      <c r="E14" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="128" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="133" t="s">
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="93"/>
+      <c r="E15" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="128" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="133" t="s">
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="136" t="s">
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="148"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="145"/>
+      <c r="E17" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="118"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="132" t="s">
+      <c r="C18" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="92"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="133" t="s">
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="93"/>
+      <c r="E19" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="66"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="133" t="s">
+      <c r="A20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="93"/>
+      <c r="E20" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="133" t="s">
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="139" t="s">
+      <c r="E21" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="93"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="12"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="134" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="94"/>
+      <c r="E22" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="70"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="75" t="s">
+      <c r="A23" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="135" t="s">
+      <c r="C23" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="141"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="144"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="114"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="133" t="s">
+      <c r="A24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="93"/>
+      <c r="E24" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="12"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="133" t="s">
+      <c r="A25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="90"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="93"/>
+      <c r="E25" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="12"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="133" t="s">
+      <c r="A26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="139" t="s">
+      <c r="E26" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="93"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="12"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="136" t="s">
+      <c r="A27" s="133"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="145"/>
+      <c r="E27" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="118"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="132" t="s">
+      <c r="B28" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="138"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="92"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="12"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="133" t="s">
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="93"/>
+      <c r="E29" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="66"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="69"/>
     </row>
-    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="12"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="133" t="s">
+    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="93"/>
+      <c r="E30" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="66"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="69"/>
     </row>
-    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="12"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="133" t="s">
+    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="139" t="s">
+      <c r="E31" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="90"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="93"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="12"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="136" t="s">
+      <c r="A32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="148"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="145"/>
+      <c r="E32" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="118"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="115"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="132" t="s">
+      <c r="B33" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="138"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="92"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="12"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="133" t="s">
+      <c r="A34" s="133"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="93"/>
+      <c r="E34" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="66"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="12"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="128" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="133" t="s">
+      <c r="A35" s="133"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="90"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="93"/>
+      <c r="E35" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="66"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="12"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="133" t="s">
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="139" t="s">
+      <c r="E36" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="90"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="93"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="12"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="134" t="s">
+      <c r="A37" s="133"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="91"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="94"/>
+      <c r="E37" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="135" t="s">
+      <c r="B38" s="154" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="141"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="144"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="114"/>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="10"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="128" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="133" t="s">
+      <c r="A39" s="136"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="93"/>
+      <c r="E39" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="66"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="11"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="136" t="s">
+      <c r="A40" s="150"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="148"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="145"/>
+      <c r="E40" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="118"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="115"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="132" t="s">
+      <c r="B41" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="138"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="92"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="12"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="128" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="133" t="s">
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="90"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="93"/>
+      <c r="E42" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="66"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="12"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="133" t="s">
+      <c r="A43" s="133"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="90"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="93"/>
+      <c r="E43" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="66"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="12"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="133" t="s">
+      <c r="A44" s="133"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="139" t="s">
+      <c r="E44" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="90"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="93"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="12"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="134" t="s">
+      <c r="A45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="91"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="94"/>
+      <c r="E45" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="67"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="70"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="135" t="s">
+      <c r="B46" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="141"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="144"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="10"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="133" t="s">
+      <c r="A47" s="136"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="151"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="93"/>
+      <c r="E47" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="121"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="11"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="136" t="s">
+      <c r="A48" s="150"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="152"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="145"/>
+      <c r="E48" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="122"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="115"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="132" t="s">
+      <c r="B49" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="138"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="92"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="10"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="133" t="s">
+      <c r="A50" s="136"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="151"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="93"/>
+      <c r="E50" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="121"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="69"/>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="10"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="133" t="s">
+      <c r="A51" s="136"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="151"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="93"/>
+      <c r="E51" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="121"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="10"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="133" t="s">
+      <c r="A52" s="136"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="139" t="s">
+      <c r="E52" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="151"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="93"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="69"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="10"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="134" t="s">
+      <c r="A53" s="136"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="153"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="94"/>
+      <c r="E53" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="123"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="70"/>
     </row>
     <row r="54" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="135" t="s">
+      <c r="D54" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="141"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="144"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="10"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="133" t="s">
+      <c r="A55" s="136"/>
+      <c r="B55" s="155"/>
+      <c r="C55" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="151"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="93"/>
+      <c r="E55" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="121"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="10"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="133" t="s">
+      <c r="A56" s="136"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="151"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="93"/>
+      <c r="E56" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="121"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="69"/>
     </row>
     <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="10"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="133" t="s">
+      <c r="A57" s="136"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="139" t="s">
+      <c r="E57" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="151"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="93"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="69"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="11"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="136" t="s">
+      <c r="A58" s="150"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="152"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="145"/>
+      <c r="E58" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="122"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="115"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="132" t="s">
+      <c r="B59" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="138"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="92"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="68"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="10"/>
-      <c r="B60" s="124"/>
-      <c r="C60" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="133" t="s">
+      <c r="A60" s="136"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="151"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="93"/>
+      <c r="E60" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="121"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="69"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="11"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="134" t="s">
+      <c r="A61" s="150"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="153"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="94"/>
+      <c r="E61" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="123"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B8:B12"/>
+  <mergeCells count="37">
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="A33:A37"/>
@@ -31735,11 +31874,21 @@
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A8:A12"/>
@@ -31747,20 +31896,32 @@
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C8:H8">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>G8=×</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D8:D61">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"エラー"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65:H1048576 H62:H63 G8:G61">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="G8:G61 H62:H63 H65:H1048576">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"×"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -33668,7 +33829,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
@@ -33687,91 +33848,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="str">
-        <f ca="1">RIGHT(CELL("filename",'アカウント登録(return)'!B1),LEN(CELL("filename",'アカウント登録(return)'!B1))-FIND("]",CELL("filename",'アカウント登録(return)'!B1)))</f>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144" t="str">
+        <f ca="1">RIGHT(CELL("filename",'アカウント登録(return)'!C1),LEN(CELL("filename",'アカウント登録(return)'!C1))-FIND("]",CELL("filename",'アカウント登録(return)'!C1)))</f>
         <v>アカウント登録(return)</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="1"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="149"/>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="143"/>
+      <c r="C3" s="127">
         <v>45434</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="1"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="143"/>
+      <c r="C4" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="130"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
       <c r="I4" s="1"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="143"/>
+      <c r="C5" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
     </row>
@@ -33784,966 +33945,971 @@
     </row>
     <row r="7" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="146" t="s">
+      <c r="E7" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="113" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="154" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="143" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="132" t="s">
+      <c r="B8" s="131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="92"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="133" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="93"/>
+      <c r="E9" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="128" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="133" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="93"/>
+      <c r="E10" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="128" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="133" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="93"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="134" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="94"/>
+      <c r="E12" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="135" t="s">
+      <c r="B13" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="141"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="144"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="133" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="93"/>
+      <c r="E14" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="128" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="133" t="s">
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="93"/>
+      <c r="E15" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="128" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="133" t="s">
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="136" t="s">
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="148"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="145"/>
+      <c r="E17" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="118"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="132" t="s">
+      <c r="B18" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="92"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="133" t="s">
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="93"/>
+      <c r="E19" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="66"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="133" t="s">
+      <c r="A20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="93"/>
+      <c r="E20" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="133" t="s">
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="139" t="s">
+      <c r="E21" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="93"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="12"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="134" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="94"/>
+      <c r="E22" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="70"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="135" t="s">
+      <c r="A23" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="141"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="144"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="114"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="133" t="s">
+      <c r="A24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="93"/>
+      <c r="E24" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="12"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="133" t="s">
+      <c r="A25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="90"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="93"/>
+      <c r="E25" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="12"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="133" t="s">
+      <c r="A26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="139" t="s">
+      <c r="E26" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="93"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="12"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="136" t="s">
+      <c r="A27" s="133"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="145"/>
+      <c r="E27" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="118"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="132" t="s">
+      <c r="B28" s="134" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="138"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="92"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="12"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="133" t="s">
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="93"/>
+      <c r="E29" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="66"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="69"/>
     </row>
     <row r="30" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="12"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="133" t="s">
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="93"/>
+      <c r="E30" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="66"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="69"/>
     </row>
     <row r="31" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="12"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="133" t="s">
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="139" t="s">
+      <c r="E31" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="90"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="93"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="12"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="136" t="s">
+      <c r="A32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="148"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="145"/>
+      <c r="E32" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="118"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="115"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="132" t="s">
+      <c r="B33" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="138"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="92"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="12"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="133" t="s">
+      <c r="A34" s="133"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="93"/>
+      <c r="E34" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="66"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="12"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="128" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="133" t="s">
+      <c r="A35" s="133"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="90"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="93"/>
+      <c r="E35" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="66"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="12"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="133" t="s">
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="139" t="s">
+      <c r="E36" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="90"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="93"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="12"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="134" t="s">
+      <c r="A37" s="133"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="91"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="94"/>
+      <c r="E37" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="135" t="s">
+      <c r="B38" s="154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="141"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="144"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="114"/>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="10"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="128" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="133" t="s">
+      <c r="A39" s="136"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="93"/>
+      <c r="E39" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="66"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="11"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="136" t="s">
+      <c r="A40" s="150"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="148"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="145"/>
+      <c r="E40" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="118"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="115"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="132" t="s">
+      <c r="B41" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="138"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="92"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="12"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="128" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="133" t="s">
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="90"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="93"/>
+      <c r="E42" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="66"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="12"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="133" t="s">
+      <c r="A43" s="133"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="90"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="93"/>
+      <c r="E43" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="66"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="12"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="133" t="s">
+      <c r="A44" s="133"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="139" t="s">
+      <c r="E44" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="90"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="93"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="12"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="134" t="s">
+      <c r="A45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="91"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="94"/>
+      <c r="E45" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="67"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="70"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="135" t="s">
+      <c r="B46" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="141"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="144"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="10"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="133" t="s">
+      <c r="A47" s="136"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="151"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="93"/>
+      <c r="E47" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="121"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="11"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="136" t="s">
+      <c r="A48" s="150"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="152"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="145"/>
+      <c r="E48" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="122"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="115"/>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="132" t="s">
+      <c r="B49" s="154" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="138"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="92"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="10"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="133" t="s">
+      <c r="A50" s="136"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="151"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="93"/>
+      <c r="E50" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="121"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="69"/>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="10"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="133" t="s">
+      <c r="A51" s="136"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="151"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="93"/>
+      <c r="E51" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="121"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="10"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="133" t="s">
+      <c r="A52" s="136"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="139" t="s">
+      <c r="E52" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="151"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="93"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="69"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="10"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="134" t="s">
+      <c r="A53" s="136"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="153"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="94"/>
+      <c r="E53" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="123"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="70"/>
     </row>
     <row r="54" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="135" t="s">
+      <c r="B54" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="141"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="144"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="10"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="133" t="s">
+      <c r="A55" s="136"/>
+      <c r="B55" s="155"/>
+      <c r="C55" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="151"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="93"/>
+      <c r="E55" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="121"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="10"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="133" t="s">
+      <c r="A56" s="136"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="151"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="93"/>
+      <c r="E56" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="121"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="69"/>
     </row>
     <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="10"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="133" t="s">
+      <c r="A57" s="136"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="139" t="s">
+      <c r="E57" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="151"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="93"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="69"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="11"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="136" t="s">
+      <c r="A58" s="150"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="152"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="145"/>
+      <c r="E58" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="122"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="115"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="132" t="s">
+      <c r="B59" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="138"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="92"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="68"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="10"/>
-      <c r="B60" s="124"/>
-      <c r="C60" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="133" t="s">
+      <c r="A60" s="136"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="151"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="93"/>
+      <c r="E60" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="121"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="69"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="11"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="134" t="s">
+      <c r="A61" s="150"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="153"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="94"/>
+      <c r="E61" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="123"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="B54:B58"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H65:H1048576 H62:H63">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"×"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D8:D61">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"エラー"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G61">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:H63 H65:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"×"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38525,8 +38691,8 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
@@ -38545,91 +38711,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="str">
-        <f ca="1">RIGHT(CELL("filename",アカウント登録確認!B1),LEN(CELL("filename",アカウント登録確認!B1))-FIND("]",CELL("filename",アカウント登録確認!B1)))</f>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144" t="str">
+        <f ca="1">RIGHT(CELL("filename",アカウント登録確認!C1),LEN(CELL("filename",アカウント登録確認!C1))-FIND("]",CELL("filename",アカウント登録確認!C1)))</f>
         <v>アカウント登録確認</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="1"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="148" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="149"/>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="143"/>
+      <c r="C3" s="127">
         <v>45434</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="1"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="143"/>
+      <c r="C4" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="130"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
       <c r="I4" s="1"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="143"/>
+      <c r="C5" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
     </row>
@@ -38642,982 +38808,987 @@
     </row>
     <row r="7" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="B8" s="163" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="92"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="93"/>
+      <c r="E9" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="41" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="93"/>
+      <c r="E10" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="41" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="93"/>
+      <c r="E11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="94"/>
+      <c r="E12" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="64" t="s">
+      <c r="B13" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="92"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="41" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="93"/>
+      <c r="E14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="44" t="s">
+      <c r="A15" s="133"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="93"/>
+      <c r="E15" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="66"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="41" t="s">
+      <c r="A16" s="133"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="93"/>
+      <c r="E16" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="40" t="s">
+      <c r="A17" s="133"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="94"/>
+      <c r="E17" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="38" t="s">
+      <c r="B18" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="92"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="78" t="s">
+      <c r="A19" s="133"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="93"/>
+      <c r="E19" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="66"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="78" t="s">
+      <c r="A20" s="133"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="93"/>
+      <c r="E20" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="78" t="s">
+      <c r="A21" s="133"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="93"/>
+      <c r="E21" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="66"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="39" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="94"/>
+      <c r="E22" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="70"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="107" t="s">
+      <c r="A23" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="161" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="113"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="92"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="68"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="110" t="s">
+      <c r="A24" s="133"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="93"/>
+      <c r="E24" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="108" t="s">
+      <c r="A25" s="133"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="90"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="93"/>
+      <c r="E25" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="109" t="s">
+      <c r="A26" s="133"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="93"/>
+      <c r="E26" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="66"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="111" t="s">
+      <c r="A27" s="133"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="94"/>
+      <c r="E27" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="70"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="107" t="s">
+      <c r="B28" s="161" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="113"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="92"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="108" t="s">
+      <c r="A29" s="133"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="93"/>
+      <c r="E29" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="66"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="69"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="109" t="s">
+      <c r="A30" s="133"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="93"/>
+      <c r="E30" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="66"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="69"/>
     </row>
     <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="110" t="s">
+      <c r="A31" s="133"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="90"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="93"/>
+      <c r="E31" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="66"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="111" t="s">
+      <c r="A32" s="133"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="117"/>
+      <c r="E32" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="93"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="38" t="s">
+      <c r="B33" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="112"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="88"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="41" t="s">
+      <c r="A34" s="133"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="101"/>
+      <c r="E34" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="77"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="44" t="s">
+      <c r="A35" s="133"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="102"/>
+      <c r="E35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="56"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="78"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="12"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="41" t="s">
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="101"/>
+      <c r="E36" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="40" t="s">
+      <c r="A37" s="133"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="103"/>
+      <c r="E37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="79"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="64" t="s">
+      <c r="B38" s="157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="54"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="10"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="44" t="s">
+      <c r="A39" s="136"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="60"/>
+      <c r="E39" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="10"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="39" t="s">
+      <c r="A40" s="136"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="E40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="38" t="s">
+      <c r="B41" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="41" t="s">
+      <c r="A42" s="133"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
+      <c r="E42" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="44" t="s">
+      <c r="A43" s="133"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="E43" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="41" t="s">
+      <c r="A44" s="133"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="60"/>
+      <c r="E44" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="40"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="40" t="s">
+      <c r="A45" s="133"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="59"/>
+      <c r="E45" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="64" t="s">
+      <c r="B46" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="51"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="10"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="44" t="s">
+      <c r="A47" s="136"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="60"/>
+      <c r="E47" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="10"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="78" t="s">
+      <c r="A48" s="136"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="77"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="60"/>
+      <c r="E48" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="11"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="39" t="s">
+      <c r="A49" s="150"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="E49" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="44"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="64" t="s">
+      <c r="B50" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="51"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="10"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="86" t="s">
+      <c r="A51" s="136"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
+      <c r="E51" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="10"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="71" t="s">
+      <c r="A52" s="136"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
+      <c r="E52" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="10"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="44" t="s">
+      <c r="A53" s="136"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="77"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="60"/>
+      <c r="E53" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="53"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="10"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="39" t="s">
+      <c r="A54" s="136"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="65"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48"/>
+      <c r="E54" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="44"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="38" t="s">
+      <c r="B55" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="63"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="51"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="10"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="78" t="s">
+      <c r="A56" s="136"/>
+      <c r="B56" s="158"/>
+      <c r="C56" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="77"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="60"/>
+      <c r="E56" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="53"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="10"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="78" t="s">
+      <c r="A57" s="136"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="77"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="60"/>
+      <c r="E57" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="53"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="10"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="41" t="s">
+      <c r="A58" s="136"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="56"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="54"/>
+      <c r="E58" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="33"/>
     </row>
     <row r="59" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="10"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="40" t="s">
+      <c r="A59" s="136"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="48"/>
+      <c r="E59" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="44"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="64" t="s">
+      <c r="B60" s="160" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="44" t="s">
+      <c r="A61" s="159"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="56"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="54"/>
+      <c r="E61" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="39" t="s">
+      <c r="A62" s="159"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" s="65"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
+      <c r="E62" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="44"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="B55:B59"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D8:D62">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"エラー"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66:H1048576 H63:H64 G8:G62">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="G8:G62 H63:H64 H66:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"×"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
